--- a/sample/sample-template.xlsx
+++ b/sample/sample-template.xlsx
@@ -141,9 +141,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="-335746284249593534" xfId="1" hidden="0"/>
-    <cellStyle name="4811236934846468305" xfId="2" hidden="0"/>
-    <cellStyle name="-9216764983786175774" xfId="3" hidden="0"/>
+    <cellStyle name="-1077827836137920113" xfId="1" hidden="0"/>
+    <cellStyle name="-2733111887906488682" xfId="2" hidden="0"/>
+    <cellStyle name="-4795446883378099277" xfId="3" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
